--- a/data/analysis/abc124/cluster_destination_charging_evci_analysis.xlsx
+++ b/data/analysis/abc124/cluster_destination_charging_evci_analysis.xlsx
@@ -576,10 +576,10 @@
         <v>2403870.519935897</v>
       </c>
       <c r="P2" t="n">
-        <v>3465000</v>
+        <v>2310000</v>
       </c>
       <c r="Q2" t="n">
-        <v>1248060</v>
+        <v>832040</v>
       </c>
       <c r="R2" t="n">
         <v>56</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2257949.930480756</v>
+        <v>2257949.930480538</v>
       </c>
       <c r="P3" t="n">
-        <v>3465000</v>
+        <v>2310000</v>
       </c>
       <c r="Q3" t="n">
-        <v>1248060</v>
+        <v>832040</v>
       </c>
       <c r="R3" t="n">
         <v>56</v>
@@ -678,7 +678,7 @@
         <v>73.82140704</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03542469179662271</v>
+        <v>0.03542469179697981</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>2430334.306620887</v>
       </c>
       <c r="P4" t="n">
-        <v>3465000</v>
+        <v>2310000</v>
       </c>
       <c r="Q4" t="n">
-        <v>1248060</v>
+        <v>832040</v>
       </c>
       <c r="R4" t="n">
         <v>56</v>
